--- a/bthawk_migration_task.xlsx
+++ b/bthawk_migration_task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,12 +158,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -450,7 +450,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,10 +582,15 @@
       <c r="C6" s="7">
         <v>44244</v>
       </c>
+      <c r="D6" s="7">
+        <v>44244</v>
+      </c>
       <c r="E6" s="7">
         <v>44255</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
@@ -598,10 +603,15 @@
       <c r="C7" s="7">
         <v>44244</v>
       </c>
+      <c r="D7" s="7">
+        <v>44245</v>
+      </c>
       <c r="E7" s="7">
         <v>44255</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
       </c>

--- a/bthawk_migration_task.xlsx
+++ b/bthawk_migration_task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>S.No</t>
   </si>
@@ -50,18 +50,9 @@
     <t>In Queue</t>
   </si>
   <si>
-    <t>Dashboard Home Design</t>
-  </si>
-  <si>
     <t>Yash Gaur</t>
   </si>
   <si>
-    <t>Login Page Backend API</t>
-  </si>
-  <si>
-    <t>Raghvendra Awasthi</t>
-  </si>
-  <si>
     <t>Distributor Profile</t>
   </si>
   <si>
@@ -90,6 +81,93 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard Login </t>
+  </si>
+  <si>
+    <t>Dashboard Home</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Previous Design Revised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design ready </t>
+  </si>
+  <si>
+    <t>Ready With New Design</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Edit Section Remaining</t>
+  </si>
+  <si>
+    <t>Partially Completed</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t>Raghvendra</t>
+  </si>
+  <si>
+    <t>Sales Executive Edit &amp; Change Password</t>
+  </si>
+  <si>
+    <t>FSE Stock Return</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Party </t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Party List</t>
+  </si>
+  <si>
+    <t>Partially Complete</t>
+  </si>
+  <si>
+    <t>Sales Executive Details &amp; User Login Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Purchase Bill Detail Remaining  </t>
+  </si>
+  <si>
+    <t>Add Stock</t>
+  </si>
+  <si>
+    <t>Individual User Stock Detail</t>
+  </si>
+  <si>
+    <t>User Status Change</t>
+  </si>
+  <si>
+    <t>Credit List</t>
+  </si>
+  <si>
+    <t>Generate Debit Note</t>
+  </si>
+  <si>
+    <t>Left in remaining due to need of further modules</t>
+  </si>
+  <si>
+    <t>Primary Order Replacement</t>
   </si>
 </sst>
 </file>
@@ -99,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +195,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
@@ -144,9 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -159,13 +243,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,402 +576,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7">
-        <v>44235</v>
-      </c>
-      <c r="D2" s="7">
-        <v>44239</v>
-      </c>
-      <c r="E2" s="7">
-        <v>44255</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="I1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>44240</v>
-      </c>
-      <c r="D3" s="7">
-        <v>44240</v>
-      </c>
-      <c r="E3" s="7">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18">
+        <v>44235</v>
+      </c>
+      <c r="D3" s="14">
+        <v>44239</v>
+      </c>
+      <c r="E3" s="14">
         <v>44255</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18">
         <v>44240</v>
       </c>
-      <c r="D4" s="7">
-        <v>44242</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="14">
+        <v>44240</v>
+      </c>
+      <c r="E4" s="14">
         <v>44255</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>44240</v>
+      </c>
+      <c r="D5" s="14">
+        <v>44242</v>
+      </c>
+      <c r="E5" s="14">
+        <v>44255</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <v>44244</v>
+      </c>
+      <c r="D7" s="14">
+        <v>44244</v>
+      </c>
+      <c r="E7" s="14">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18">
+        <v>44244</v>
+      </c>
+      <c r="D8" s="14">
+        <v>44245</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44255</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>44244</v>
+      </c>
+      <c r="D9" s="14">
+        <v>44251</v>
+      </c>
+      <c r="E9" s="14">
+        <v>44255</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C10" s="18">
         <v>44244</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D10" s="14">
+        <v>44257</v>
+      </c>
+      <c r="E10" s="14">
+        <v>44255</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18">
         <v>44244</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E11" s="14">
         <v>44255</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="H11" s="6"/>
+      <c r="I11" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18">
         <v>44244</v>
       </c>
-      <c r="D7" s="7">
-        <v>44245</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E12" s="14">
         <v>44255</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44244</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44255</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44244</v>
-      </c>
-      <c r="E9" s="7">
-        <v>44255</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44244</v>
-      </c>
-      <c r="E10" s="7">
-        <v>44255</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44244</v>
-      </c>
-      <c r="E11" s="7">
-        <v>44255</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="16"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44266</v>
+      </c>
+      <c r="D15" s="15">
+        <v>44266</v>
+      </c>
+      <c r="E15" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44266</v>
+      </c>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44267</v>
+      </c>
+      <c r="D16" s="15">
+        <v>44267</v>
+      </c>
+      <c r="E16" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44267</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44268</v>
+      </c>
+      <c r="D17" s="15">
+        <v>44268</v>
+      </c>
+      <c r="E17" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44268</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44268</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44266</v>
+      </c>
+      <c r="D22" s="15">
+        <v>44266</v>
+      </c>
+      <c r="E22" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6">
+        <v>44266</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44267</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44267</v>
+      </c>
+      <c r="E23" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="6">
+        <v>44267</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="18">
+        <v>44268</v>
+      </c>
+      <c r="D24" s="14">
+        <v>44268</v>
+      </c>
+      <c r="E24" s="15">
+        <v>44270</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6">
+        <v>44268</v>
+      </c>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18">
+        <v>44268</v>
+      </c>
+      <c r="E25" s="15">
+        <v>44277</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="18">
+        <v>44268</v>
+      </c>
+      <c r="E26" s="15">
+        <v>44277</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="18">
+        <v>44268</v>
+      </c>
+      <c r="E27" s="15">
+        <v>44277</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="16"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="1"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="20"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F40" s="20"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F41" s="20"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
